--- a/logs/final_winner_optimization/experiments_summary.xlsx
+++ b/logs/final_winner_optimization/experiments_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW37"/>
+  <dimension ref="A1:BW38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10388,6 +10388,271 @@
         <v>-0.09544095278729969</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>46078.97717592592</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>02-25_23-27-08_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[['wv', 'sv', 'rarad'], ['sv', 'yr', 'rarad'], ['ya', 'yr']]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'rarad'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['sv', 'yr', 'rarad'], 'output_dim': 2, 'reps': 3, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['ya', 'yr'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'realamplitudes', 'entangle': 'full', 'map': [0, 1, -1]}]</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>compact</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>['effsu2', 'effsu2', 'realamplitudes']</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>[2, 3, 2]</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2], [0, 1, 2], [0, 1, -1]]</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>[0.01, 0.0005]</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.1591133164993049</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>23.76731130572179</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.3623696602491133</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-0.2203559043159494</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.4078973530980483</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.4078973530980483</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>107.7487677249886</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>-0.1920405892999608</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.2122173788256562</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0.2122173788256562</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.1915399417630574</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-0.3908276304024336</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.1317838071242491</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.5433972549649968</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0.1317838071242491</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0.1317838071242491</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.5433972549649968</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0.3059189854267712</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>-0.05994394571170436</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0.1798672964141548</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.1798672964141548</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0.2722240578063271</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>-0.09289348710437562</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>106.7722052167969</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0.6961074821873809</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>106.7722052167969</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>106.7722052167969</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0.6961074821873809</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>430.2253879149575</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>-0.2244972939813314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/final_winner_optimization/experiments_summary.xlsx
+++ b/logs/final_winner_optimization/experiments_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW38"/>
+  <dimension ref="A1:BW39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10653,6 +10653,271 @@
         <v>-0.2244972939813314</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>46079.68121527778</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>02-26_16-20-57_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[['wv', 'sv', 'rarad'], ['sv', 'yr', 'rarad'], ['ya', 'yr']]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'rarad'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['sv', 'yr', 'rarad'], 'output_dim': 2, 'reps': 3, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['ya', 'yr'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'realamplitudes', 'entangle': 'full', 'map': [0, 1, -1]}]</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>compact</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>['effsu2', 'effsu2', 'realamplitudes']</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>[2, 3, 2]</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2], [0, 1, 2], [0, 1, -1]]</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>[0.01, 0.0005]</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.1535401410543428</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>28.63624293399343</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.3673070524240782</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-0.1850266394329405</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>32.44398207201748</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.4132439460318347</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>32.44398207201748</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>32.44398207201748</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.4132439460318347</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>92.76904123264814</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-0.1310563136572235</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.1104287051895017</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.1981448205872527</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0.1104287051895017</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.1104287051895017</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0.1981448205872527</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0.1668428776538589</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>-0.2114950126898054</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0.6390240053969665</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0.6390240053969665</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0.3220556819463247</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-0.1158541526438668</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>0.2032581565968143</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>0.1839827922058968</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>0.2032581565968143</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0.2032581565968143</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>0.1839827922058968</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0.2846873523675547</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>-0.142929672603894</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>129.358057228167</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>0.6318241659372197</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>129.358057228167</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>129.358057228167</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0.6318241659372197</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>370.3025790186248</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>-0.05394641669134725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
